--- a/Import_Inventory/6.คลังผลิต.xlsx
+++ b/Import_Inventory/6.คลังผลิต.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
